--- a/Exercise Files/C Essential Training 2 Generics Collections and LINQ Revision Q1 2022 Paavo Stubstad 2-9-2022 3.06.10 PM.xlsx
+++ b/Exercise Files/C Essential Training 2 Generics Collections and LINQ Revision Q1 2022 Paavo Stubstad 2-9-2022 3.06.10 PM.xlsx
@@ -1,15 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iprag\Documents\GitHub\Ex_Files_C_Sharp_EssT_2\Exercise Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="169">
   <si>
     <t>MovieName</t>
   </si>
@@ -522,37 +532,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="27">
-    <numFmt formatCode="@" numFmtId="165"/>
-    <numFmt formatCode="mm/dd/yyyy" numFmtId="166"/>
-    <numFmt formatCode="[hh]:mm:ss" numFmtId="167"/>
-    <numFmt formatCode="@" numFmtId="168"/>
-    <numFmt formatCode="@" numFmtId="169"/>
-    <numFmt formatCode="@" numFmtId="170"/>
-    <numFmt formatCode="@" numFmtId="171"/>
-    <numFmt formatCode="@" numFmtId="172"/>
-    <numFmt formatCode="mm/dd/yyyy" numFmtId="173"/>
-    <numFmt formatCode="mm/dd/yyyy" numFmtId="174"/>
-    <numFmt formatCode="mm/dd/yyyy" numFmtId="176"/>
-    <numFmt formatCode="@" numFmtId="177"/>
-    <numFmt formatCode="@" numFmtId="178"/>
-    <numFmt formatCode="mm/dd/yyyy" numFmtId="179"/>
-    <numFmt formatCode="mm/dd/yyyy" numFmtId="180"/>
-    <numFmt formatCode="mm/dd/yyyy" numFmtId="182"/>
-    <numFmt formatCode="@" numFmtId="183"/>
-    <numFmt formatCode="@" numFmtId="184"/>
-    <numFmt formatCode="mm/dd/yyyy" numFmtId="185"/>
-    <numFmt formatCode="mm/dd/yyyy" numFmtId="186"/>
-    <numFmt formatCode="mm/dd/yyyy" numFmtId="188"/>
-    <numFmt formatCode="@" numFmtId="189"/>
-    <numFmt formatCode="@" numFmtId="190"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Verdana"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -560,7 +545,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Verdana"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -582,683 +567,906 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="29">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="167" xfId="0">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="168" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="170" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="171" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="172" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="173" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="174" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="176" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="177" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="178" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="179" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="180" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="182" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="183" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="184" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="185" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="186" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="188" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="189" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="190" xfId="0">
-      <alignment horizontal="general" vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetFormatPr baseColWidth="21" defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="1">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="1">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s" s="1">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s" s="1">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s" s="1">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s" s="1">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s" s="1">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s" s="1">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s" s="1">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s" s="1">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="6">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s" s="7">
+      <c r="B2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s" s="8">
+      <c r="C2" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="6">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s" s="8">
+      <c r="C3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="V3" t="s" s="27">
+      <c r="V3" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="6">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s" s="7">
+      <c r="B4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="s" s="8">
+      <c r="C4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" t="s" s="9">
+      <c r="D4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E4" t="s" s="10">
+      <c r="E4" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="6">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B5" t="s" s="7">
+      <c r="B5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C5" t="s" s="8">
+      <c r="C5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D5" t="s" s="9">
+      <c r="D5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" t="s" s="10">
+      <c r="E5" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s" s="6">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B6" t="s" s="7">
+      <c r="B6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C6" t="s" s="8">
+      <c r="C6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D6" t="s" s="9">
+      <c r="D6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E6" t="s" s="10">
+      <c r="E6" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s" s="6">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B7" t="s" s="7">
+      <c r="B7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C7" t="s" s="8">
+      <c r="C7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E7" t="s" s="10">
+      <c r="E7" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s" s="6">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B8" t="s" s="7">
+      <c r="B8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C8" t="s" s="8">
+      <c r="C8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E8" t="s" s="10">
+      <c r="E8" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s" s="6">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B9" t="s" s="7">
+      <c r="B9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C9" t="s" s="8">
+      <c r="C9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E9" t="s" s="10">
+      <c r="E9" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="V9" t="s" s="27">
+      <c r="V9" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s" s="6">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B10" t="s" s="7">
+      <c r="B10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C10" t="s" s="8">
+      <c r="C10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E10" t="s" s="10">
+      <c r="E10" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s" s="6">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B11" t="s" s="7">
+      <c r="B11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C11" t="s" s="8">
+      <c r="C11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E11" t="s" s="10">
+      <c r="E11" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s" s="6">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B12" t="s" s="7">
+      <c r="B12" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C12" t="s" s="8">
+      <c r="C12" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E12" t="s" s="10">
+      <c r="E12" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="s" s="6">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B13" t="s" s="7">
+      <c r="B13" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C13" t="s" s="8">
+      <c r="C13" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E13" t="s" s="10">
+      <c r="E13" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="s" s="6">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B14" t="s" s="7">
+      <c r="B14" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C14" t="s" s="8">
+      <c r="C14" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D14" t="s" s="9">
+      <c r="D14" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E14" t="s" s="10">
+      <c r="E14" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="s" s="6">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B15" t="s" s="7">
+      <c r="B15" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C15" t="s" s="8">
+      <c r="C15" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E15" t="s" s="10">
+      <c r="E15" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="s" s="6">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B16" t="s" s="7">
+      <c r="B16" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C16" t="s" s="8">
+      <c r="C16" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E16" t="s" s="10">
+      <c r="E16" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="6">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B17" t="s" s="7">
+      <c r="B17" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C17" t="s" s="8">
+      <c r="C17" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E17" t="s" s="10">
+      <c r="E17" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s" s="6">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B18" t="s" s="7">
+      <c r="B18" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C18" t="s" s="8">
+      <c r="C18" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E18" t="s" s="10">
+      <c r="E18" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="V18" t="s" s="27">
+      <c r="V18" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s" s="6">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B19" t="s" s="7">
+      <c r="B19" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C19" t="s" s="8">
+      <c r="C19" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E19" t="s" s="10">
+      <c r="E19" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s" s="6">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B20" t="s" s="7">
+      <c r="B20" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C20" t="s" s="8">
+      <c r="C20" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E20" t="s" s="10">
+      <c r="E20" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="6">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B21" t="s" s="7">
+      <c r="B21" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C21" t="s" s="8">
+      <c r="C21" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E21" t="s" s="10">
+      <c r="E21" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="s" s="6">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B22" t="s" s="7">
+      <c r="B22" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C22" t="s" s="8">
+      <c r="C22" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E22" t="s" s="10">
+      <c r="E22" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s" s="6">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B23" t="s" s="7">
+      <c r="B23" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C23" t="s" s="8">
+      <c r="C23" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D23" t="s" s="9">
+      <c r="D23" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="E23" t="s" s="10">
+      <c r="E23" s="6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="6">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B24" t="s" s="7">
+      <c r="B24" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C24" t="s" s="8">
+      <c r="C24" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E24" t="s" s="10">
+      <c r="E24" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="s" s="6">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B25" t="s" s="7">
+      <c r="B25" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C25" t="s" s="8">
+      <c r="C25" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E25" t="s" s="10">
+      <c r="E25" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="s" s="6">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B26" t="s" s="7">
+      <c r="B26" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C26" t="s" s="8">
+      <c r="C26" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D26" t="s" s="9">
+      <c r="D26" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E26" t="s" s="10">
+      <c r="E26" s="6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="s" s="6">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B27" t="s" s="7">
+      <c r="B27" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C27" t="s" s="8">
+      <c r="C27" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D27" t="s" s="9">
+      <c r="D27" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E27" t="s" s="10">
+      <c r="E27" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="s" s="6">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B28" t="s" s="7">
+      <c r="B28" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C28" t="s" s="8">
+      <c r="C28" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E28" t="s" s="10">
+      <c r="E28" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="s" s="6">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B29" t="s" s="7">
+      <c r="B29" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C29" t="s" s="8">
+      <c r="C29" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E29" t="s" s="10">
+      <c r="E29" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="s" s="6">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B30" t="s" s="7">
+      <c r="B30" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C30" t="s" s="8">
+      <c r="C30" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E30" t="s" s="10">
+      <c r="E30" s="6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="s" s="6">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B31" t="s" s="7">
+      <c r="B31" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C31" t="s" s="8">
+      <c r="C31" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E31" t="s" s="10">
+      <c r="E31" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="s" s="6">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B32" t="s" s="7">
+      <c r="B32" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C32" t="s" s="8">
+      <c r="C32" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E32" t="s" s="10">
+      <c r="E32" s="6" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="s" s="6">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B33" t="s" s="7">
+      <c r="B33" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C33" t="s" s="8">
+      <c r="C33" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E33" t="s" s="10">
+      <c r="E33" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="s" s="6">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B34" t="s" s="7">
+      <c r="B34" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C34" t="s" s="8">
+      <c r="C34" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E34" t="s" s="10">
+      <c r="E34" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="s" s="6">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B35" t="s" s="7">
+      <c r="B35" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C35" t="s" s="8">
+      <c r="C35" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="E35" t="s" s="10">
+      <c r="E35" s="6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="s" s="6">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B36" t="s" s="7">
+      <c r="B36" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C36" t="s" s="8">
+      <c r="C36" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="V36" t="s" s="27">
+      <c r="V36" s="7" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>